--- a/doku/bauteillisten/Bauteilliste_Klänge.xlsx
+++ b/doku/bauteillisten/Bauteilliste_Klänge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjori\Documents\GitHub\eib-drumcomputer\doku\bauteillisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BEE2BE-EC8E-4EE0-AC3C-CF57CDA60BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4B5D0-05F3-421C-BA87-4A8340316DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
+    <workbookView xWindow="14295" yWindow="16200" windowWidth="14610" windowHeight="15585" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="136">
   <si>
     <t>R1</t>
   </si>
@@ -125,9 +125,6 @@
     <t>R22</t>
   </si>
   <si>
-    <t>R23</t>
-  </si>
-  <si>
     <t>R24</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>C21</t>
   </si>
   <si>
-    <t>C22</t>
-  </si>
-  <si>
     <t>C23</t>
   </si>
   <si>
@@ -198,12 +192,6 @@
   </si>
   <si>
     <t>RV4</t>
-  </si>
-  <si>
-    <t>RV5</t>
-  </si>
-  <si>
-    <t>RV6</t>
   </si>
   <si>
     <t>Microcontroller Input</t>
@@ -497,6 +485,9 @@
   </si>
   <si>
     <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>RV2</t>
   </si>
 </sst>
 </file>
@@ -864,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C92ABB-D357-4F69-8821-FB89C4695B70}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,37 +868,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -915,34 +906,34 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -950,34 +941,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -985,34 +976,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1020,34 +1011,34 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,34 +1046,34 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1090,34 +1081,34 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1125,34 +1116,34 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,34 +1151,34 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1195,34 +1186,34 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,34 +1221,34 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,34 +1256,34 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1300,34 +1291,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1335,34 +1326,34 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,34 +1361,34 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1405,34 +1396,34 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,34 +1431,34 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1475,34 +1466,34 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,34 +1501,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1545,34 +1536,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,34 +1571,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1615,34 +1606,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1650,34 +1641,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1685,34 +1676,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,34 +1711,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1755,34 +1746,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1790,34 +1781,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,209 +1816,209 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" t="s">
         <v>74</v>
       </c>
-      <c r="D30" t="s">
+      <c r="J30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
+      <c r="K30" t="s">
         <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,34 +2026,34 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,34 +2061,34 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2105,34 +2096,34 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2140,34 +2131,34 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2175,69 +2166,69 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,384 +2236,384 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,34 +2621,34 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2665,314 +2656,314 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J59" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,174 +2971,69 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-      <c r="J64" t="s">
-        <v>92</v>
-      </c>
-      <c r="K64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" t="s">
-        <v>92</v>
-      </c>
-      <c r="K65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" t="s">
-        <v>115</v>
-      </c>
-      <c r="J66" t="s">
-        <v>115</v>
-      </c>
-      <c r="K66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/doku/bauteillisten/Bauteilliste_Klänge.xlsx
+++ b/doku/bauteillisten/Bauteilliste_Klänge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjori\Documents\GitHub\eib-drumcomputer\doku\bauteillisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4B5D0-05F3-421C-BA87-4A8340316DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E4EA3-ACAB-4A5B-A532-D88122FD57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="16200" windowWidth="14610" windowHeight="15585" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
+    <workbookView xWindow="5565" yWindow="18195" windowWidth="21600" windowHeight="11295" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,16 +1221,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
         <v>114</v>
@@ -1239,16 +1239,16 @@
         <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/doku/bauteillisten/Bauteilliste_Klänge.xlsx
+++ b/doku/bauteillisten/Bauteilliste_Klänge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjori\Documents\GitHub\eib-drumcomputer\doku\bauteillisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E4EA3-ACAB-4A5B-A532-D88122FD57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3642908-5610-49BF-BEDC-04D508703E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="18195" windowWidth="21600" windowHeight="11295" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{78AF99AD-6250-41D7-8A4D-B52CBF1E52F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="140">
   <si>
     <t>R1</t>
   </si>
@@ -488,6 +488,18 @@
   </si>
   <si>
     <t>RV2</t>
+  </si>
+  <si>
+    <t>Bridge 1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>82n</t>
   </si>
 </sst>
 </file>
@@ -855,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C92ABB-D357-4F69-8821-FB89C4695B70}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,6 +3048,51 @@
         <v>111</v>
       </c>
     </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
